--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantList" sheetId="3" r:id="rId1"/>
+    <sheet name="ProcessList" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D31" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2816,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -2887,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2958,7 +2958,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D33"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>50</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>75</v>
       </c>
       <c r="L21" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>75</v>
       </c>
       <c r="L22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>75</v>
       </c>
       <c r="L23" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M31" s="3">
         <v>85</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M32" s="3">
         <v>85</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M33" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1683,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>40</v>
@@ -2106,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="3">
-        <v>1000</v>
+        <v>745</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>60</v>
@@ -2177,7 +2177,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>250</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -1399,7 +1399,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <v>40</v>
@@ -1470,7 +1470,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
@@ -1541,7 +1541,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>40</v>
@@ -1612,7 +1612,7 @@
         <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>40</v>
@@ -2109,7 +2109,7 @@
         <v>745</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>60</v>
@@ -2180,7 +2180,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>60</v>
@@ -2251,7 +2251,7 @@
         <v>800</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="L27" sqref="L27:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M31" s="3">
         <v>85</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M32" s="3">
         <v>85</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M33" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>MW</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>GERMANY_REW_HYD_PS_2004</t>
-  </si>
-  <si>
-    <t>GERMANY_REW_HYD_PS_2003</t>
   </si>
   <si>
     <t>ZoneB1_Agr</t>
@@ -649,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,7 +816,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -890,7 +887,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1160,7 +1157,7 @@
         <v>41</v>
       </c>
       <c r="T7" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1231,7 +1228,7 @@
         <v>40</v>
       </c>
       <c r="T8" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U8" s="3">
         <v>5</v>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1302,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="T9" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U9" s="3">
         <v>5</v>
@@ -1316,7 +1313,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1373,7 +1370,7 @@
         <v>40</v>
       </c>
       <c r="T10" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U10" s="3">
         <v>5</v>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>59</v>
@@ -1515,7 +1512,7 @@
         <v>31</v>
       </c>
       <c r="T12" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U12" s="3">
         <v>5</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
@@ -1586,7 +1583,7 @@
         <v>27</v>
       </c>
       <c r="T13" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U13" s="3">
         <v>5</v>
@@ -1600,7 +1597,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
@@ -1657,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="T14" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U14" s="3">
         <v>5</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1728,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="T15" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U15" s="3">
         <v>5</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -1799,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="T16" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U16" s="3">
         <v>5</v>
@@ -1813,7 +1810,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1870,7 +1867,7 @@
         <v>16</v>
       </c>
       <c r="T17" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U17" s="3">
         <v>5</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -2012,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="T19" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U19" s="3">
         <v>5</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -2154,7 +2151,7 @@
         <v>70</v>
       </c>
       <c r="T21" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U21" s="3">
         <v>5</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -2225,7 +2222,7 @@
         <v>70</v>
       </c>
       <c r="T22" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U22" s="3">
         <v>5</v>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>41</v>
@@ -2296,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="T23" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U23" s="3">
         <v>5</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -2367,7 +2364,7 @@
         <v>80</v>
       </c>
       <c r="T24" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U24" s="3">
         <v>5</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -2438,7 +2435,7 @@
         <v>80</v>
       </c>
       <c r="T25" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U25" s="3">
         <v>5</v>
@@ -2452,7 +2449,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -2736,7 +2733,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
@@ -2878,16 +2875,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -2896,10 +2893,10 @@
         <v>60</v>
       </c>
       <c r="G32" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H32" s="3">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2949,31 +2946,31 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3">
         <v>2004</v>
       </c>
       <c r="H33" s="3">
-        <v>2064</v>
+        <v>2024</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" s="3">
         <v>95</v>
@@ -2982,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -3000,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>3293</v>
+        <v>1942</v>
       </c>
       <c r="S33" s="3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="T33" s="3">
         <v>1E-3</v>
@@ -3020,7 +3017,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3029,19 +3026,19 @@
         <v>50</v>
       </c>
       <c r="D34" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="3">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F34" s="3">
         <v>20</v>
       </c>
       <c r="G34" s="3">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="H34" s="3">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="I34" s="3">
         <v>6</v>
@@ -3091,31 +3088,31 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="F35" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G35" s="3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H35" s="3">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="I35" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>95</v>
@@ -3142,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>1942</v>
+        <v>4200</v>
       </c>
       <c r="S35" s="3">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="T35" s="3">
         <v>1E-3</v>
@@ -3162,28 +3159,28 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3">
         <v>600</v>
       </c>
       <c r="E36" s="3">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="F36" s="3">
         <v>25</v>
       </c>
       <c r="G36" s="3">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="H36" s="3">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -3213,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>4200</v>
+        <v>1700</v>
       </c>
       <c r="S36" s="3">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="T36" s="3">
         <v>1E-3</v>
@@ -3232,144 +3229,73 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>600</v>
       </c>
-      <c r="E37" s="3">
-        <v>185</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="2">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2">
         <v>25</v>
       </c>
-      <c r="G37" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2032</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>95</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
+      <c r="G37" s="2">
+        <v>1991</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>95</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>100</v>
       </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
         <v>1700</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="2">
         <v>26</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="2">
         <v>1E-3</v>
       </c>
-      <c r="U37" s="3">
-        <v>5</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="2">
-        <v>600</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
-        <v>25</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1991</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2016</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>95</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>100</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>1700</v>
-      </c>
-      <c r="S38" s="2">
-        <v>26</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="U38" s="2">
-        <v>5</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
+      <c r="U37" s="2">
+        <v>5</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>MW</t>
   </si>
@@ -148,21 +148,12 @@
     <t>GERMANY_REW_HYD_LG_1968</t>
   </si>
   <si>
-    <t>GERMANY_REW_HYD_LG_1975</t>
-  </si>
-  <si>
-    <t>GERMANY_COA_CHP_BP_DH_1989</t>
-  </si>
-  <si>
     <t>GERMANY_NUK_LWR_1985</t>
   </si>
   <si>
     <t>GERMANY_OIL_ST_1998</t>
   </si>
   <si>
-    <t>GERMANY_BIO_CHP_1982</t>
-  </si>
-  <si>
     <t>GERMANY_BIO_CHP_1996</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>GERMANY_BIO_CHP_2017</t>
   </si>
   <si>
-    <t>GERMANY_COA_SUB_LN_1987</t>
-  </si>
-  <si>
     <t>GERMANY_COA_CHP_BP_DH_2015</t>
   </si>
   <si>
@@ -215,9 +203,6 @@
   </si>
   <si>
     <t>GERMANY_OIL_ST_2011</t>
-  </si>
-  <si>
-    <t>GERMANY_GAS_CC_2000</t>
   </si>
   <si>
     <t>GERMANY_OIL_ST_2003</t>
@@ -344,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -360,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -816,28 +801,28 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E3" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
       </c>
       <c r="G3" s="3">
-        <v>1983</v>
+        <v>2004</v>
       </c>
       <c r="H3" s="3">
-        <v>2023</v>
+        <v>2044</v>
       </c>
       <c r="I3" s="3">
         <v>7</v>
@@ -887,28 +872,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
       </c>
       <c r="G4" s="3">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="H4" s="3">
-        <v>2044</v>
+        <v>2057</v>
       </c>
       <c r="I4" s="3">
         <v>7</v>
@@ -958,28 +943,28 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
       </c>
       <c r="G5" s="3">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="H5" s="3">
-        <v>2057</v>
+        <v>2038</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
@@ -1000,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>55.7</v>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>3376</v>
+        <v>2762</v>
       </c>
       <c r="S5" s="3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T5" s="3">
         <v>1E-3</v>
@@ -1029,28 +1014,28 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
       </c>
       <c r="G6" s="3">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="H6" s="3">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
@@ -1086,7 +1071,7 @@
         <v>41</v>
       </c>
       <c r="T6" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U6" s="3">
         <v>5</v>
@@ -1100,28 +1085,28 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="H7" s="3">
-        <v>2046</v>
+        <v>2019</v>
       </c>
       <c r="I7" s="3">
         <v>7</v>
@@ -1142,22 +1127,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R7" s="3">
-        <v>2762</v>
+        <v>2004</v>
       </c>
       <c r="S7" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1171,28 +1156,28 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
       </c>
       <c r="G8" s="3">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="H8" s="3">
-        <v>2019</v>
+        <v>2035</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -1228,7 +1213,7 @@
         <v>40</v>
       </c>
       <c r="T8" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U8" s="3">
         <v>5</v>
@@ -1242,28 +1227,28 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>1984</v>
+        <v>2015</v>
       </c>
       <c r="H9" s="3">
-        <v>2024</v>
+        <v>2055</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -1299,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="T9" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U9" s="3">
         <v>5</v>
@@ -1313,28 +1298,28 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>40</v>
       </c>
       <c r="G10" s="3">
-        <v>1995</v>
+        <v>1979</v>
       </c>
       <c r="H10" s="3">
-        <v>2035</v>
+        <v>2019</v>
       </c>
       <c r="I10" s="3">
         <v>7</v>
@@ -1343,7 +1328,7 @@
         <v>95</v>
       </c>
       <c r="K10" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
@@ -1355,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P10" s="3">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>2004</v>
+        <v>2415</v>
       </c>
       <c r="S10" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="T10" s="3">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U10" s="3">
         <v>5</v>
@@ -1384,16 +1369,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -1402,10 +1387,10 @@
         <v>40</v>
       </c>
       <c r="G11" s="3">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="H11" s="3">
-        <v>2055</v>
+        <v>2023</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
@@ -1414,7 +1399,7 @@
         <v>95</v>
       </c>
       <c r="K11" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -1426,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P11" s="3">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>2004</v>
+        <v>2100</v>
       </c>
       <c r="S11" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T11" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U11" s="3">
         <v>5</v>
@@ -1455,28 +1440,28 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
       </c>
       <c r="G12" s="3">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="H12" s="3">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="I12" s="3">
         <v>7</v>
@@ -1497,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1506,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>2415</v>
+        <v>2100</v>
       </c>
       <c r="S12" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T12" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U12" s="3">
         <v>5</v>
@@ -1526,28 +1511,28 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
-        <v>1983</v>
+        <v>1996</v>
       </c>
       <c r="H13" s="3">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="I13" s="3">
         <v>7</v>
@@ -1556,10 +1541,10 @@
         <v>95</v>
       </c>
       <c r="K13" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1568,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -1577,48 +1562,48 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S13" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T13" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U13" s="3">
         <v>5</v>
       </c>
       <c r="V13" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W13" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>1987</v>
+        <v>2011</v>
       </c>
       <c r="H14" s="3">
-        <v>2027</v>
+        <v>2046</v>
       </c>
       <c r="I14" s="3">
         <v>7</v>
@@ -1627,10 +1612,10 @@
         <v>95</v>
       </c>
       <c r="K14" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1639,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1648,48 +1633,48 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S14" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T14" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U14" s="3">
         <v>5</v>
       </c>
       <c r="V14" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W14" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="H15" s="3">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="I15" s="3">
         <v>7</v>
@@ -1698,10 +1683,10 @@
         <v>95</v>
       </c>
       <c r="K15" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1710,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1719,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="S15" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="T15" s="3">
         <v>3.0000000000000001E-3</v>
@@ -1731,36 +1716,36 @@
         <v>5</v>
       </c>
       <c r="V15" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W15" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
         <v>300</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
       </c>
       <c r="G16" s="3">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="H16" s="3">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="I16" s="3">
         <v>7</v>
@@ -1772,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1781,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -1790,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>1098</v>
+        <v>800</v>
       </c>
       <c r="S16" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T16" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U16" s="3">
         <v>5</v>
@@ -1810,28 +1795,28 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>745</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="H17" s="3">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="I17" s="3">
         <v>7</v>
@@ -1840,10 +1825,10 @@
         <v>95</v>
       </c>
       <c r="K17" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L17" s="3">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1852,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1861,45 +1846,45 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>1098</v>
+        <v>5500</v>
       </c>
       <c r="S17" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="T17" s="3">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U17" s="3">
         <v>5</v>
       </c>
       <c r="V17" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W17" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3">
-        <v>2011</v>
+        <v>1986</v>
       </c>
       <c r="H18" s="3">
         <v>2046</v>
@@ -1911,10 +1896,10 @@
         <v>95</v>
       </c>
       <c r="K18" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L18" s="3">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1923,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1932,48 +1917,48 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>1098</v>
+        <v>5500</v>
       </c>
       <c r="S18" s="3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="T18" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U18" s="3">
         <v>5</v>
       </c>
       <c r="V18" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W18" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3">
-        <v>1974</v>
+        <v>1989</v>
       </c>
       <c r="H19" s="3">
-        <v>2015</v>
+        <v>2049</v>
       </c>
       <c r="I19" s="3">
         <v>7</v>
@@ -1982,10 +1967,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L19" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2003,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>800</v>
+        <v>5500</v>
       </c>
       <c r="S19" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="T19" s="3">
         <v>3.0000000000000001E-3</v>
@@ -2015,36 +2000,36 @@
         <v>5</v>
       </c>
       <c r="V19" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W19" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="H20" s="3">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="I20" s="3">
         <v>7</v>
@@ -2053,7 +2038,7 @@
         <v>95</v>
       </c>
       <c r="K20" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
         <v>5</v>
@@ -2065,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -2074,48 +2059,48 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="S20" s="3">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="T20" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U20" s="3">
         <v>5</v>
       </c>
       <c r="V20" s="3">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W20" s="4">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3">
-        <v>745</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
-        <v>1985</v>
+        <v>1996</v>
       </c>
       <c r="H21" s="3">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="I21" s="3">
         <v>7</v>
@@ -2124,10 +2109,10 @@
         <v>95</v>
       </c>
       <c r="K21" s="3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="L21" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2136,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -2145,48 +2130,48 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="S21" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T21" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U21" s="3">
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <v>3000000</v>
+        <v>400</v>
       </c>
       <c r="W21" s="4">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G22" s="3">
-        <v>1986</v>
+        <v>2012</v>
       </c>
       <c r="H22" s="3">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="I22" s="3">
         <v>7</v>
@@ -2195,10 +2180,10 @@
         <v>95</v>
       </c>
       <c r="K22" s="3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="L22" s="3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2207,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2216,60 +2201,60 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="S22" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T22" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U22" s="3">
         <v>5</v>
       </c>
       <c r="V22" s="3">
-        <v>3000000</v>
+        <v>400</v>
       </c>
       <c r="W22" s="4">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
       </c>
       <c r="G23" s="3">
-        <v>1989</v>
+        <v>1958</v>
       </c>
       <c r="H23" s="3">
-        <v>2049</v>
+        <v>2018</v>
       </c>
       <c r="I23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <v>95</v>
       </c>
       <c r="K23" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2278,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2287,60 +2272,60 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="S23" s="3">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="T23" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U23" s="3">
         <v>5</v>
       </c>
       <c r="V23" s="3">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3">
-        <v>1999</v>
+        <v>1977</v>
       </c>
       <c r="H24" s="3">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="I24" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>95</v>
       </c>
       <c r="K24" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2349,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2361,57 +2346,57 @@
         <v>2000</v>
       </c>
       <c r="S24" s="3">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T24" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U24" s="3">
         <v>5</v>
       </c>
       <c r="V24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="H25" s="3">
-        <v>2026</v>
+        <v>2050</v>
       </c>
       <c r="I25" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
         <v>95</v>
       </c>
       <c r="K25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2420,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -2432,66 +2417,66 @@
         <v>2000</v>
       </c>
       <c r="S25" s="3">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T25" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U25" s="3">
         <v>5</v>
       </c>
       <c r="V25" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W25" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3">
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="H26" s="3">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="I26" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>95</v>
       </c>
       <c r="K26" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2500,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>2000</v>
+        <v>3293</v>
       </c>
       <c r="S26" s="3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="T26" s="3">
         <v>1E-3</v>
@@ -2512,39 +2497,39 @@
         <v>5</v>
       </c>
       <c r="V26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W26" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
         <v>60</v>
       </c>
       <c r="G27" s="3">
-        <v>1958</v>
+        <v>2004</v>
       </c>
       <c r="H27" s="3">
-        <v>2018</v>
+        <v>2064</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>95</v>
@@ -2556,13 +2541,13 @@
         <v>20</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2571,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>2000</v>
+        <v>3293</v>
       </c>
       <c r="S27" s="3">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T27" s="3">
         <v>1E-3</v>
@@ -2591,31 +2576,31 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E28" s="3">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F28" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G28" s="3">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H28" s="3">
-        <v>2066</v>
+        <v>2024</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" s="3">
         <v>95</v>
@@ -2624,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -2642,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>2000</v>
+        <v>1942</v>
       </c>
       <c r="S28" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T28" s="3">
         <v>1E-3</v>
@@ -2662,31 +2647,31 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F29" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3">
-        <v>1977</v>
+        <v>2010</v>
       </c>
       <c r="H29" s="3">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J29" s="3">
         <v>95</v>
@@ -2695,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2713,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>2000</v>
+        <v>1942</v>
       </c>
       <c r="S29" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T29" s="3">
         <v>1E-3</v>
@@ -2733,31 +2718,31 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E30" s="3">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="F30" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G30" s="3">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="H30" s="3">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>95</v>
@@ -2766,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2784,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="S30" s="3">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="T30" s="3">
         <v>1E-3</v>
@@ -2804,28 +2789,28 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="F31" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G31" s="3">
-        <v>1976</v>
+        <v>2007</v>
       </c>
       <c r="H31" s="3">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -2837,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -2855,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <v>3293</v>
+        <v>1700</v>
       </c>
       <c r="S31" s="3">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="T31" s="3">
         <v>1E-3</v>
@@ -2874,428 +2859,73 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>60</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2064</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="2">
+        <v>600</v>
+      </c>
+      <c r="E32" s="2">
+        <v>300</v>
+      </c>
+      <c r="F32" s="2">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1991</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <v>95</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>20</v>
-      </c>
-      <c r="M32" s="3">
-        <v>85</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>80</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>3293</v>
-      </c>
-      <c r="S32" s="3">
-        <v>48</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>100</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1700</v>
+      </c>
+      <c r="S32" s="2">
+        <v>26</v>
+      </c>
+      <c r="T32" s="2">
         <v>1E-3</v>
       </c>
-      <c r="U32" s="3">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>52</v>
-      </c>
-      <c r="F33" s="3">
-        <v>20</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2004</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2024</v>
-      </c>
-      <c r="I33" s="3">
-        <v>6</v>
-      </c>
-      <c r="J33" s="3">
-        <v>95</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S33" s="3">
-        <v>19</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U33" s="3">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>24</v>
-      </c>
-      <c r="F34" s="3">
-        <v>20</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2010</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2030</v>
-      </c>
-      <c r="I34" s="3">
-        <v>6</v>
-      </c>
-      <c r="J34" s="3">
-        <v>95</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>100</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S34" s="3">
-        <v>19</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U34" s="3">
-        <v>5</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3">
-        <v>600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>25</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2015</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2040</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>95</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>126</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U35" s="3">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="3">
-        <v>600</v>
-      </c>
-      <c r="E36" s="3">
-        <v>300</v>
-      </c>
-      <c r="F36" s="3">
-        <v>25</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2032</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>95</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>100</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S36" s="3">
-        <v>26</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U36" s="3">
-        <v>5</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="2">
-        <v>600</v>
-      </c>
-      <c r="E37" s="2">
-        <v>300</v>
-      </c>
-      <c r="F37" s="2">
-        <v>25</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1991</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2016</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>95</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>100</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
-        <v>1700</v>
-      </c>
-      <c r="S37" s="2">
-        <v>26</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="U37" s="2">
-        <v>5</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
+      <c r="U32" s="2">
+        <v>5</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
@@ -881,7 +881,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="3">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1165,7 +1165,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3">
         <v>9</v>
@@ -1236,7 +1236,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1245,10 +1245,10 @@
         <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="H9" s="3">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB1.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -884,7 +884,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -955,7 +955,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -1026,7 +1026,7 @@
         <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
@@ -1310,7 +1310,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>40</v>
@@ -1381,7 +1381,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>40</v>
@@ -1523,7 +1523,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
         <v>35</v>
@@ -1594,7 +1594,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <v>35</v>
@@ -1736,7 +1736,7 @@
         <v>300</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
@@ -1807,7 +1807,7 @@
         <v>745</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -1878,7 +1878,7 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>60</v>
@@ -1949,7 +1949,7 @@
         <v>800</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <v>60</v>
@@ -2020,7 +2020,7 @@
         <v>80</v>
       </c>
       <c r="E20" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>30</v>
@@ -2091,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>30</v>
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>30</v>
@@ -2233,7 +2233,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
@@ -2375,7 +2375,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>60</v>
